--- a/src/test/resources/excelData/fbData.xlsx
+++ b/src/test/resources/excelData/fbData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19dcebdf543d4f4e/Desktop/MonikaWS/DataDrivenFramework/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{688A07DD-04B2-4284-9B43-ADECF94B0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1262BDB-F202-4D3B-B161-EA4E781BB38B}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{688A07DD-04B2-4284-9B43-ADECF94B0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CF9A5D-21D5-4816-B94C-1AFE09A5C7C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{106A3809-DF31-4A9D-8B75-A6C3AB12CA88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{106A3809-DF31-4A9D-8B75-A6C3AB12CA88}"/>
   </bookViews>
   <sheets>
     <sheet name="doFBLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="openAccount" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -88,6 +90,39 @@
   </si>
   <si>
     <t>password3</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Jaasritha</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Saranya</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Pound</t>
   </si>
 </sst>
 </file>
@@ -496,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794B9324-3867-4FB4-98FD-AAAF9C46B3DD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -585,4 +620,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2620F51B-1442-4F74-B2B2-B78FD3DA8F68}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6789000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>78999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11828-B14D-4C69-B1D0-FA5A2935A538}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>